--- a/medicine/Sexualité et sexologie/Kika/Kika.xlsx
+++ b/medicine/Sexualité et sexologie/Kika/Kika.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kika est un film espagnol réalisé par Pedro Almodóvar et sorti en 1993. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kika est une maquilleuse pour la télévision croquant la vie à pleines dents. Elle vit avec Ramón, un homme hanté par la mort de sa mère. 
 Andrea, l'ancien amour de Ramón, est une présentatrice de télévision sans scrupules qui exploite le malheur des gens. Un matin, Kika est violée par le frère de Juana, la femme de ménage. Andrea parvient à récupérer les images du viol.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Kika
 Réalisation : Pedro Almodóvar
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Verónica Forqué (VF : Odile Schmitt) : Kika
 Victoria Abril (VF : elle-même) : Andrea Caracortada
@@ -619,7 +637,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La scène d'ouverture du film est une référence au film Blow-Up de Michelangelo Antonioni.
 </t>
